--- a/Excel/VoloBuilds.xlsx
+++ b/Excel/VoloBuilds.xlsx
@@ -468,25 +468,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>416Fs_dAIY0</t>
+          <t>3289vhOUdKA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Is Learning To Code Still Worth It in 20</t>
+          <t>Cursor AI Tutorial for Beginners [2025 Edition]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>257315</v>
+        <v>370736</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0:08:53</t>
+          <t>0:27:05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cursor AI Tutorial for Beginners (How I </t>
+          <t>Cursor AI Tutorial for Beginners (How I Code 159% Faster)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>200906</v>
+        <v>211818</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>How I built a REAL Full Stack App in 5hr</t>
+          <t>How I built a REAL Full Stack App in 5hr using Cursor</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>56121</v>
+        <v>75866</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -558,25 +558,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mxX1TYrhPFo</t>
+          <t>1kPr1vy0-QY</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>How I built a REAL Full Stack App in 5hr</t>
+          <t>7 Cursor Hacks to become the FASTEST coder</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-08-24</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>56121</v>
+        <v>65837</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2:42:58</t>
+          <t>0:08:54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cursor vs Bolt vs Replit vs v0 [Best AI </t>
+          <t>Cursor vs Bolt vs Replit vs v0 [Best AI Coding Tool]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>51946</v>
+        <v>60591</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1kPr1vy0-QY</t>
+          <t>PlQPSkIUdIk</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7 Cursor Hacks to become the FASTEST cod</t>
+          <t>Stop using v0 - do THIS instead (Cursor + shadcn/ui)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-08-24</t>
+          <t>2024-10-26</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>51297</v>
+        <v>47854</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0:08:54</t>
+          <t>0:06:38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -648,25 +648,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PlQPSkIUdIk</t>
+          <t>Z0K35C9Gf08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stop using v0 - do THIS instead (Cursor </t>
+          <t>Did Cursor just kill Claude Code?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>33147</v>
+        <v>32997</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0:06:38</t>
+          <t>0:08:59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -678,25 +678,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3289vhOUdKA</t>
+          <t>ouT8ItvJla8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cursor AI Tutorial for Beginners [2025 E</t>
+          <t>Windsurf AI first impressions (better than Cursor?)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2024-11-17</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>30986</v>
+        <v>28913</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0:27:05</t>
+          <t>0:27:39</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -708,25 +708,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>icn494po304</t>
+          <t>Qtr9Dyl7MZ0</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Is Coding Pointless Now? #ai</t>
+          <t>Cursor vs Windsurf - which is the BEST AI Code Editor?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>26969</v>
+        <v>27122</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0:00:32</t>
+          <t>0:24:34</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -738,25 +738,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ouT8ItvJla8</t>
+          <t>YyeUSujTvXc</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Windsurf AI first impressions (better th</t>
+          <t>Lovable + Cursor (Best AI Workflow?)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>25395</v>
+        <v>23298</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0:27:39</t>
+          <t>0:30:45</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
